--- a/biology/Botanique/Dodecatheon/Dodecatheon.xlsx
+++ b/biology/Botanique/Dodecatheon/Dodecatheon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dodecatheon est un genre de plante à fleurs de la famille des primulacées. On les rencontre essentiellement en Amérique du Nord.
 Ce sont des plantes herbacées vivaces avec des fleurs en forme de cloche.
 On recense 14 espèces poussant, pour la plupart dans des prairies alpines ou humides, parfois dans les sous-bois, en Amérique du Nord.
-Le nom vernaculaire est Gyroselle ou le dodécathéon [1].
+Le nom vernaculaire est Gyroselle ou le dodécathéon .
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pline, dans son livre 25 (chapitre 4), cite une plante qu'il nomme δωδεκάθεος (dodécatheon) parce qu'elle renferme en elle la majesté des douze grand Dieux ; la gyroselle est une plante différente : originaire d'Amérique, elle porte le nom savant de dodecatheon parce que la hampe de cette plante porte ordinairement douze (δώδεκα) fleurs.
 </t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles ovales à lancéolées, spatulées ou oblongues, sont glabres. Elles sont disposées en rosette basale.
 Sur les tiges arquées apparaissent des ombelles de fleurs pendantes, ressemblant à celles du cyclamen, avec des pétales très réfléchis et des styles longs et pointus.
@@ -582,10 +598,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dodecatheon alpinum (Gray) Greene - Californie.
-Dodecatheon amethystinum (Fassett) Fassett syn. Dodecatheon pulchellum Raf. subsp. pulchellum[2], la gyroselle pauciflore Primula pauciflora (Greene) A. R. Mast &amp; Reveal
+Dodecatheon amethystinum (Fassett) Fassett syn. Dodecatheon pulchellum Raf. subsp. pulchellum, la gyroselle pauciflore Primula pauciflora (Greene) A. R. Mast &amp; Reveal
 Dodecatheon austrofrigidum sp. nov. ined.
 Dodecatheon clevelandii Greene - Californie.
 Dodecatheon conjugens Greene - du Wyoming à l'Oregon.
